--- a/pyees/testData/data5.xlsx
+++ b/pyees/testData/data5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ymerdkdc01\folder redirections\DJAVE\My Documents\GitHub\dataUncert\dataUncert\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ymerdkdc01\folder redirections\DJAVE\My Documents\GitHub\pyees\pyees\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2D69E7-3880-43AF-B462-1F34D380F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101BD889-7B4F-4FDA-9BC9-432536BCA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5F6BAB0-B9A3-4FB8-B84A-62DE77F5D537}"/>
   </bookViews>
@@ -40,13 +40,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>L/min</t>
+    <t>C</t>
   </si>
   <si>
     <t>mA</t>
   </si>
   <si>
-    <t>C</t>
+    <t>L/min</t>
   </si>
 </sst>
 </file>
@@ -401,20 +401,20 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -425,13 +425,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/pyees/testData/data5.xlsx
+++ b/pyees/testData/data5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ymerdkdc01\folder redirections\DJAVE\My Documents\GitHub\pyees\pyees\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101BD889-7B4F-4FDA-9BC9-432536BCA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD20B080-04C3-4CE0-808A-00C85B6501B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5F6BAB0-B9A3-4FB8-B84A-62DE77F5D537}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{F5F6BAB0-B9A3-4FB8-B84A-62DE77F5D537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -398,149 +398,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4894F4A-9552-457D-9B25-E4ED232859CE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>0.6</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>0.06</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>0.7</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H8">
         <v>0.105</v>
       </c>
-      <c r="D8">
+      <c r="I8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H9">
         <v>0.8</v>
       </c>
-      <c r="D9">
+      <c r="I9">
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H10">
         <v>0.16000000000000003</v>
       </c>
-      <c r="D10">
+      <c r="I10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H11">
         <v>0.9</v>
       </c>
-      <c r="D11">
+      <c r="I11">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D12">
+      <c r="I12">
         <v>0.25</v>
       </c>
     </row>
